--- a/output/EIT_Data_Gelatin_1_finger_2_dof_Set_1.xlsx
+++ b/output/EIT_Data_Gelatin_1_finger_2_dof_Set_1.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AMJ26"/>
+  <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82422,6 +82422,3080 @@
         <v>0</v>
       </c>
       <c r="AMJ26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.008599999999999941</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.006400000000000072</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.006500000000000006</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-0.002100000000000046</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="V27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="W27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.006500000000000061</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.01290000000000002</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.01290000000000002</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.008499999999999952</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.006400000000000072</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.00649999999999995</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>-0.002200000000000035</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>-0.006400000000000017</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>-0.004199999999999982</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>0.006400000000000072</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>0.008599999999999941</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="BT27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>-0.006500000000000006</v>
+      </c>
+      <c r="CE27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="CH27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="CJ27" t="n">
+        <v>-0.00649999999999995</v>
+      </c>
+      <c r="CK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="CM27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="CN27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="CO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="CQ27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="CR27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="CS27" t="n">
+        <v>0.006400000000000072</v>
+      </c>
+      <c r="CT27" t="n">
+        <v>0.006500000000000061</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX27" t="n">
+        <v>0.008599999999999941</v>
+      </c>
+      <c r="CY27" t="n">
+        <v>0.006500000000000061</v>
+      </c>
+      <c r="CZ27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="DA27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="DB27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="DF27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="DG27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="DH27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="DI27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="DJ27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="DK27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="DL27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="DM27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="DN27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="DO27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="DP27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="DQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="DS27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="DT27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="DU27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="DV27" t="n">
+        <v>0.002200000000000091</v>
+      </c>
+      <c r="DW27" t="n">
+        <v>0.006400000000000072</v>
+      </c>
+      <c r="DX27" t="n">
+        <v>0.01070000000000004</v>
+      </c>
+      <c r="DY27" t="n">
+        <v>0.00649999999999995</v>
+      </c>
+      <c r="DZ27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="EA27" t="n">
+        <v>0.006500000000000061</v>
+      </c>
+      <c r="EB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="EF27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="EG27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="EH27" t="n">
+        <v>0.006500000000000061</v>
+      </c>
+      <c r="EI27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="EJ27" t="n">
+        <v>0.006500000000000061</v>
+      </c>
+      <c r="EK27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="EL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM27" t="n">
+        <v>0.004300000000000082</v>
+      </c>
+      <c r="EN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="EQ27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="ER27" t="n">
+        <v>0.002200000000000091</v>
+      </c>
+      <c r="ES27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET27" t="n">
+        <v>0.008500000000000063</v>
+      </c>
+      <c r="EU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="EW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX27" t="n">
+        <v>-0.002100000000000102</v>
+      </c>
+      <c r="EY27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="EZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB27" t="n">
+        <v>0.002200000000000091</v>
+      </c>
+      <c r="FC27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="FD27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="FE27" t="n">
+        <v>0.004300000000000082</v>
+      </c>
+      <c r="FF27" t="n">
+        <v>0.006500000000000061</v>
+      </c>
+      <c r="FG27" t="n">
+        <v>0.00649999999999995</v>
+      </c>
+      <c r="FH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="FM27" t="n">
+        <v>0.00649999999999995</v>
+      </c>
+      <c r="FN27" t="n">
+        <v>0.006500000000000061</v>
+      </c>
+      <c r="FO27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="FP27" t="n">
+        <v>0.008599999999999941</v>
+      </c>
+      <c r="FQ27" t="n">
+        <v>0.008599999999999941</v>
+      </c>
+      <c r="FR27" t="n">
+        <v>0.006400000000000072</v>
+      </c>
+      <c r="FS27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="FT27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="FU27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="FV27" t="n">
+        <v>0.00649999999999995</v>
+      </c>
+      <c r="FW27" t="n">
+        <v>0.006500000000000061</v>
+      </c>
+      <c r="FX27" t="n">
+        <v>0.004300000000000082</v>
+      </c>
+      <c r="FY27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="FZ27" t="n">
+        <v>0.01070000000000004</v>
+      </c>
+      <c r="GA27" t="n">
+        <v>0.006500000000000061</v>
+      </c>
+      <c r="GB27" t="n">
+        <v>0.006500000000000061</v>
+      </c>
+      <c r="GC27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="GD27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="GE27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="GF27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="GG27" t="n">
+        <v>0.004199999999999982</v>
+      </c>
+      <c r="GH27" t="n">
+        <v>0.004300000000000082</v>
+      </c>
+      <c r="GI27" t="n">
+        <v>0.00649999999999995</v>
+      </c>
+      <c r="GJ27" t="n">
+        <v>0.01080000000000003</v>
+      </c>
+      <c r="GK27" t="n">
+        <v>0.004300000000000082</v>
+      </c>
+      <c r="GL27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="GM27" t="n">
+        <v>0.008500000000000063</v>
+      </c>
+      <c r="GN27" t="n">
+        <v>0.008599999999999941</v>
+      </c>
+      <c r="GO27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="GP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="GU27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="GV27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="GW27" t="n">
+        <v>0.004300000000000082</v>
+      </c>
+      <c r="GX27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="GY27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="GZ27" t="n">
+        <v>0.008599999999999941</v>
+      </c>
+      <c r="HA27" t="n">
+        <v>0.006500000000000061</v>
+      </c>
+      <c r="HB27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="HC27" t="n">
+        <v>0.004300000000000082</v>
+      </c>
+      <c r="HD27" t="n">
+        <v>0.006500000000000061</v>
+      </c>
+      <c r="HE27" t="n">
+        <v>0.008599999999999941</v>
+      </c>
+      <c r="HF27" t="n">
+        <v>0.01290000000000002</v>
+      </c>
+      <c r="HG27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="HH27" t="n">
+        <v>0.006400000000000072</v>
+      </c>
+      <c r="HI27" t="n">
+        <v>0.01069999999999993</v>
+      </c>
+      <c r="HJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="HN27" t="n">
+        <v>0.004300000000000082</v>
+      </c>
+      <c r="HO27" t="n">
+        <v>0.006400000000000072</v>
+      </c>
+      <c r="HP27" t="n">
+        <v>0.01080000000000003</v>
+      </c>
+      <c r="HQ27" t="n">
+        <v>0.006500000000000061</v>
+      </c>
+      <c r="HR27" t="n">
+        <v>0.008499999999999952</v>
+      </c>
+      <c r="HS27" t="n">
+        <v>0.00649999999999995</v>
+      </c>
+      <c r="HT27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="HU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="IB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="ID27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="IE27" t="n">
+        <v>0.006400000000000072</v>
+      </c>
+      <c r="IF27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="IG27" t="n">
+        <v>0.008500000000000063</v>
+      </c>
+      <c r="IH27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="II27" t="n">
+        <v>0.006400000000000072</v>
+      </c>
+      <c r="IJ27" t="n">
+        <v>0.008599999999999941</v>
+      </c>
+      <c r="IK27" t="n">
+        <v>0.01070000000000004</v>
+      </c>
+      <c r="IL27" t="n">
+        <v>0.01290000000000002</v>
+      </c>
+      <c r="IM27" t="n">
+        <v>0.008599999999999941</v>
+      </c>
+      <c r="IN27" t="n">
+        <v>0.008599999999999941</v>
+      </c>
+      <c r="IO27" t="n">
+        <v>0.01290000000000002</v>
+      </c>
+      <c r="IP27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="IQ27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="IR27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="IS27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="IT27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="IU27" t="n">
+        <v>0.008599999999999941</v>
+      </c>
+      <c r="IV27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="IW27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="IX27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="IY27" t="n">
+        <v>0.00649999999999995</v>
+      </c>
+      <c r="IZ27" t="n">
+        <v>0.008599999999999941</v>
+      </c>
+      <c r="JA27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="JB27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="JC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="JK27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="JL27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="JM27" t="n">
+        <v>0.01070000000000004</v>
+      </c>
+      <c r="JN27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="JO27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="JP27" t="n">
+        <v>0.008599999999999941</v>
+      </c>
+      <c r="JQ27" t="n">
+        <v>0.01290000000000002</v>
+      </c>
+      <c r="JR27" t="n">
+        <v>0.01719999999999999</v>
+      </c>
+      <c r="JS27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="JT27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="JU27" t="n">
+        <v>0.01080000000000003</v>
+      </c>
+      <c r="JV27" t="n">
+        <v>0.004300000000000082</v>
+      </c>
+      <c r="JW27" t="n">
+        <v>-0.002200000000000091</v>
+      </c>
+      <c r="JX27" t="n">
+        <v>-0.002100000000000102</v>
+      </c>
+      <c r="JY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="KB27" t="n">
+        <v>0.01080000000000003</v>
+      </c>
+      <c r="KC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="KE27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="KF27" t="n">
+        <v>0.006500000000000061</v>
+      </c>
+      <c r="KG27" t="n">
+        <v>0.006400000000000072</v>
+      </c>
+      <c r="KH27" t="n">
+        <v>0.004300000000000082</v>
+      </c>
+      <c r="KI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="KO27" t="n">
+        <v>-0.006500000000000061</v>
+      </c>
+      <c r="KP27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="KQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="KS27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="KT27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="KU27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="KV27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="KW27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="KX27" t="n">
+        <v>0.0151</v>
+      </c>
+      <c r="KY27" t="n">
+        <v>0.008599999999999941</v>
+      </c>
+      <c r="KZ27" t="n">
+        <v>0.004300000000000026</v>
+      </c>
+      <c r="LA27" t="n">
+        <v>0.01289999999999997</v>
+      </c>
+      <c r="LB27" t="n">
+        <v>0.004300000000000026</v>
+      </c>
+      <c r="LC27" t="n">
+        <v>-0.006400000000000017</v>
+      </c>
+      <c r="LD27" t="n">
+        <v>-0.006500000000000006</v>
+      </c>
+      <c r="LE27" t="n">
+        <v>-0.006400000000000017</v>
+      </c>
+      <c r="LF27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="LG27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="LH27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="LI27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="LJ27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="LK27" t="n">
+        <v>0.004199999999999982</v>
+      </c>
+      <c r="LL27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="LM27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="LN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="LP27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="LQ27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="LR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="LV27" t="n">
+        <v>-0.00649999999999995</v>
+      </c>
+      <c r="LW27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="LX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="MA27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="MB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="MD27" t="n">
+        <v>0.01070000000000004</v>
+      </c>
+      <c r="ME27" t="n">
+        <v>0.00649999999999995</v>
+      </c>
+      <c r="MF27" t="n">
+        <v>0.00649999999999995</v>
+      </c>
+      <c r="MG27" t="n">
+        <v>0.01080000000000003</v>
+      </c>
+      <c r="MH27" t="n">
+        <v>0.004300000000000026</v>
+      </c>
+      <c r="MI27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="MJ27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="MK27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="ML27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="MM27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="MN27" t="n">
+        <v>0.008599999999999941</v>
+      </c>
+      <c r="MO27" t="n">
+        <v>0.004300000000000082</v>
+      </c>
+      <c r="MP27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="MQ27" t="n">
+        <v>0.002100000000000102</v>
+      </c>
+      <c r="MR27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="MS27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="MT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="MV27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="MW27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="MX27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="MY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="NC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND27" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="NF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI27" t="n">
+        <v>0.004300000000000082</v>
+      </c>
+      <c r="NJ27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="NK27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="NL27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="NM27" t="n">
+        <v>0.008600000000000052</v>
+      </c>
+      <c r="NN27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="NO27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="NP27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="NQ27" t="n">
+        <v>-0.002100000000000102</v>
+      </c>
+      <c r="NR27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="NS27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="NT27" t="n">
+        <v>0.006400000000000072</v>
+      </c>
+      <c r="NU27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="NV27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="NW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="NY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="OB27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="OC27" t="n">
+        <v>-0.002100000000000102</v>
+      </c>
+      <c r="OD27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="OE27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="OF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="OK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON27" t="n">
+        <v>-0.002200000000000091</v>
+      </c>
+      <c r="OO27" t="n">
+        <v>0.002200000000000091</v>
+      </c>
+      <c r="OP27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="OQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="OS27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="OT27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="OU27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="OV27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="OW27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="OX27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="OY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="PA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="PC27" t="n">
+        <v>-0.002200000000000091</v>
+      </c>
+      <c r="PD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="PF27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="PG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="PH27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="PI27" t="n">
+        <v>-0.002200000000000091</v>
+      </c>
+      <c r="PJ27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="PK27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="PL27" t="n">
+        <v>-0.006400000000000072</v>
+      </c>
+      <c r="PM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="PP27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="PQ27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="PR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="PS27" t="n">
+        <v>-0.002200000000000091</v>
+      </c>
+      <c r="PT27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="PU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="PW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="PX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="PY27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="PZ27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="QA27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="QB27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="QC27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="QD27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="QE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="QF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="QH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI27" t="n">
+        <v>-0.002200000000000091</v>
+      </c>
+      <c r="QJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="QK27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="QL27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="QM27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="QN27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="QO27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="QP27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="QQ27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="QR27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="QS27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="QT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="QU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="QV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="QW27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="QX27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="QY27" t="n">
+        <v>-0.006500000000000061</v>
+      </c>
+      <c r="QZ27" t="n">
+        <v>-0.006400000000000072</v>
+      </c>
+      <c r="RA27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="RB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="RD27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="RE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="RG27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="RH27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="RI27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="RJ27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="RK27" t="n">
+        <v>-0.002100000000000102</v>
+      </c>
+      <c r="RL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="RM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="RN27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="RO27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="RP27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="RQ27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="RR27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="RS27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="RT27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="RU27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="RV27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="RW27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="RX27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="RY27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="RZ27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="SA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="SC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="SD27" t="n">
+        <v>0.002200000000000091</v>
+      </c>
+      <c r="SE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="SF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="SG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="SH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="SI27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="SJ27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="SK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="SM27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="SN27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="SO27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="SP27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="SQ27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="SR27" t="n">
+        <v>-0.002200000000000035</v>
+      </c>
+      <c r="SS27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ST27" t="n">
+        <v>-0.002200000000000035</v>
+      </c>
+      <c r="SU27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="SV27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="SW27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="SX27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="SY27" t="n">
+        <v>-0.002200000000000091</v>
+      </c>
+      <c r="SZ27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="TA27" t="n">
+        <v>-0.002200000000000091</v>
+      </c>
+      <c r="TB27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="TC27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="TD27" t="n">
+        <v>-0.002200000000000091</v>
+      </c>
+      <c r="TE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="TH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK27" t="n">
+        <v>0.006399999999999961</v>
+      </c>
+      <c r="TL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="TN27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="TO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TP27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="TQ27" t="n">
+        <v>-0.002200000000000035</v>
+      </c>
+      <c r="TR27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="TS27" t="n">
+        <v>-0.006400000000000017</v>
+      </c>
+      <c r="TT27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="TU27" t="n">
+        <v>-0.006500000000000006</v>
+      </c>
+      <c r="TV27" t="n">
+        <v>-0.006500000000000006</v>
+      </c>
+      <c r="TW27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="TX27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="TY27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="TZ27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="UA27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="UB27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="UC27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="UD27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="UE27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="UF27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="UG27" t="n">
+        <v>-0.002100000000000102</v>
+      </c>
+      <c r="UH27" t="n">
+        <v>-0.002200000000000091</v>
+      </c>
+      <c r="UI27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="UJ27" t="n">
+        <v>-0.002200000000000091</v>
+      </c>
+      <c r="UK27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="UL27" t="n">
+        <v>-0.002200000000000091</v>
+      </c>
+      <c r="UM27" t="n">
+        <v>0.008599999999999941</v>
+      </c>
+      <c r="UN27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="UO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="UP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="US27" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="UU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="UV27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="UW27" t="n">
+        <v>-0.002200000000000035</v>
+      </c>
+      <c r="UX27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="UY27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="UZ27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="VA27" t="n">
+        <v>-0.006400000000000017</v>
+      </c>
+      <c r="VB27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="VC27" t="n">
+        <v>-0.002200000000000035</v>
+      </c>
+      <c r="VD27" t="n">
+        <v>-0.002200000000000035</v>
+      </c>
+      <c r="VE27" t="n">
+        <v>-0.002200000000000035</v>
+      </c>
+      <c r="VF27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="VG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="VH27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="VI27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="VJ27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="VK27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="VL27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="VM27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="VN27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="VO27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="VP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="VS27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="VT27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="VU27" t="n">
+        <v>0.004300000000000082</v>
+      </c>
+      <c r="VV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="VW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="VX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="VY27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="VZ27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="WA27" t="n">
+        <v>0.002200000000000091</v>
+      </c>
+      <c r="WB27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="WC27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="WD27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="WE27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="WF27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="WG27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="WH27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="WI27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="WJ27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="WK27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="WL27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="WM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="WN27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="WO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="WP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="WQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="WR27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="WS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="WT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="WU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="WY27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="WZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="XA27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="XB27" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="XC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="XE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="XF27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="XG27" t="n">
+        <v>0.002200000000000091</v>
+      </c>
+      <c r="XH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="XI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="XJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="XK27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="XL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="XM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="XN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="XP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="XQ27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="XR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="XS27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="XT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="XW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="XY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="XZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="YA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="YB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="YC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="YD27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="YE27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="YF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="YG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="YJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="YL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="YM27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="YN27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="YO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="YP27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="YQ27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="YR27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="YS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="YT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="YU27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="YV27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="YW27" t="n">
+        <v>-0.002200000000000035</v>
+      </c>
+      <c r="YX27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="YY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="YZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZA27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="ZB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZD27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ZE27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="ZF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZH27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="ZI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZJ27" t="n">
+        <v>0.002200000000000091</v>
+      </c>
+      <c r="ZK27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="ZL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZM27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="ZN27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="ZO27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="ZP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZT27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="ZU27" t="n">
+        <v>0.002200000000000091</v>
+      </c>
+      <c r="ZV27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="ZW27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="ZX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZZ27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="AAA27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AAB27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AAC27" t="n">
+        <v>-0.002200000000000091</v>
+      </c>
+      <c r="AAD27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="AAE27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AAF27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AAG27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AAH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAI27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AAJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAL27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AAM27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AAN27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AAO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAP27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AAQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAT27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="AAU27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="AAV27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="AAW27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="AAX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ABA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ABB27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ABC27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ABD27" t="n">
+        <v>-0.002200000000000091</v>
+      </c>
+      <c r="ABE27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ABF27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ABG27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ABH27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ABI27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="ABJ27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="ABK27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="ABL27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="ABM27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="ABN27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ABO27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ABP27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ABQ27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ABR27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ABS27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ABT27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ABU27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ABV27" t="n">
+        <v>-0.002100000000000102</v>
+      </c>
+      <c r="ABW27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ABX27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="ABY27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="ABZ27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ACA27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ACB27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="ACC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ACD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ACE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ACF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ACG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ACH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ACI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ACJ27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ACK27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ACL27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ACM27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="ACN27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ACO27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ACP27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="ACQ27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ACR27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ACS27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ACT27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ACU27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ACV27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ACW27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="ACX27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ACY27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="ACZ27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ADA27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ADB27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ADC27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="ADD27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="ADE27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ADF27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="ADG27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ADH27" t="n">
+        <v>-0.004199999999999982</v>
+      </c>
+      <c r="ADI27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="ADJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADQ27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ADR27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="ADS27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ADT27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ADU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADZ27" t="n">
+        <v>-0.002200000000000035</v>
+      </c>
+      <c r="AEA27" t="n">
+        <v>-0.002200000000000035</v>
+      </c>
+      <c r="AEB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEC27" t="n">
+        <v>-0.002200000000000035</v>
+      </c>
+      <c r="AED27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AEE27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AEF27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AEG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEH27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AEI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEL27" t="n">
+        <v>-0.002200000000000035</v>
+      </c>
+      <c r="AEM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEP27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="AEQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AER27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AES27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AET27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEX27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AEY27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AEZ27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AFA27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AFB27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AFC27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AFD27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AFE27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AFF27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AFG27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="AFH27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AFI27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AFJ27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AFK27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AFL27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="AFM27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AFN27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AFO27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AFP27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="AFQ27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AFR27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AFS27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="AFT27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AFU27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AFV27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AFW27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AFX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFY27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AFZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGC27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AGD27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AGE27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="AGF27" t="n">
+        <v>-0.006500000000000061</v>
+      </c>
+      <c r="AGG27" t="n">
+        <v>-0.00649999999999995</v>
+      </c>
+      <c r="AGH27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AGI27" t="n">
+        <v>-0.006500000000000061</v>
+      </c>
+      <c r="AGJ27" t="n">
+        <v>-0.006400000000000072</v>
+      </c>
+      <c r="AGK27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="AGL27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="AGM27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="AGN27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AGO27" t="n">
+        <v>-0.006500000000000006</v>
+      </c>
+      <c r="AGP27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="AGQ27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AGR27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="AGS27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AGT27" t="n">
+        <v>-0.006400000000000017</v>
+      </c>
+      <c r="AGU27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AGV27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AGW27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="AGX27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AGY27" t="n">
+        <v>-0.006500000000000006</v>
+      </c>
+      <c r="AGZ27" t="n">
+        <v>-0.006400000000000017</v>
+      </c>
+      <c r="AHA27" t="n">
+        <v>-0.006400000000000072</v>
+      </c>
+      <c r="AHB27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AHC27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="AHD27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AHE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHF27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="AHG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHJ27" t="n">
+        <v>-0.006500000000000061</v>
+      </c>
+      <c r="AHK27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="AHL27" t="n">
+        <v>-0.00649999999999995</v>
+      </c>
+      <c r="AHM27" t="n">
+        <v>0.03219999999999999</v>
+      </c>
+      <c r="AHN27" t="n">
+        <v>0.008600000000000003</v>
+      </c>
+      <c r="AHO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHS27" t="n">
+        <v>0.002200000000000001</v>
+      </c>
+      <c r="AHT27" t="n">
+        <v>-0.002100000000000005</v>
+      </c>
+      <c r="AHU27" t="n">
+        <v>-0.002099999999999998</v>
+      </c>
+      <c r="AHV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHW27" t="n">
+        <v>0.002100000000000005</v>
+      </c>
+      <c r="AHX27" t="n">
+        <v>0.002199999999999994</v>
+      </c>
+      <c r="AHY27" t="n">
+        <v>0.002199999999999994</v>
+      </c>
+      <c r="AHZ27" t="n">
+        <v>0.004300000000000005</v>
+      </c>
+      <c r="AIA27" t="n">
+        <v>0.002099999999999998</v>
+      </c>
+      <c r="AIB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AIC27" t="n">
+        <v>0.002200000000000001</v>
+      </c>
+      <c r="AID27" t="n">
+        <v>0.004299999999999998</v>
+      </c>
+      <c r="AIE27" t="n">
+        <v>-0.008600000000000003</v>
+      </c>
+      <c r="AIF27" t="n">
+        <v>0.002199999999999994</v>
+      </c>
+      <c r="AIG27" t="n">
+        <v>-0.006499999999999999</v>
+      </c>
+      <c r="AIH27" t="n">
+        <v>-0.004299999999999998</v>
+      </c>
+      <c r="AII27" t="n">
+        <v>-0.004299999999999998</v>
+      </c>
+      <c r="AIJ27" t="n">
+        <v>-0.002099999999999998</v>
+      </c>
+      <c r="AIK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AIL27" t="n">
+        <v>-0.002200000000000001</v>
+      </c>
+      <c r="AIM27" t="n">
+        <v>0.002200000000000001</v>
+      </c>
+      <c r="AIN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AIO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AIP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AIQ27" t="n">
+        <v>0.002099999999999998</v>
+      </c>
+      <c r="AIR27" t="n">
+        <v>-0.004299999999999998</v>
+      </c>
+      <c r="AIS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AIT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AIU27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AIV27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="AIW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AIX27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AIY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AIZ27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AJA27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="AJB27" t="n">
+        <v>0.00219999999999998</v>
+      </c>
+      <c r="AJC27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="AJD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJF27" t="n">
+        <v>0.002200000000000035</v>
+      </c>
+      <c r="AJG27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="AJH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJJ27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AJK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJL27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="AJM27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AJN27" t="n">
+        <v>-0.008600000000000052</v>
+      </c>
+      <c r="AJO27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AJP27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AJQ27" t="n">
+        <v>-0.00649999999999995</v>
+      </c>
+      <c r="AJR27" t="n">
+        <v>-0.006400000000000072</v>
+      </c>
+      <c r="AJS27" t="n">
+        <v>-0.002100000000000102</v>
+      </c>
+      <c r="AJT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJX27" t="n">
+        <v>-0.00649999999999995</v>
+      </c>
+      <c r="AJY27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AJZ27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AKA27" t="n">
+        <v>-0.006500000000000061</v>
+      </c>
+      <c r="AKB27" t="n">
+        <v>-0.00219999999999998</v>
+      </c>
+      <c r="AKC27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AKD27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="AKE27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AKF27" t="n">
+        <v>-0.00649999999999995</v>
+      </c>
+      <c r="AKG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AKH27" t="n">
+        <v>0.002099999999999991</v>
+      </c>
+      <c r="AKI27" t="n">
+        <v>0.002200000000000091</v>
+      </c>
+      <c r="AKJ27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="AKK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AKL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AKM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AKN27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AKO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AKP27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AKQ27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="AKR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AKS27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="AKT27" t="n">
+        <v>-0.008599999999999941</v>
+      </c>
+      <c r="AKU27" t="n">
+        <v>-0.008600000000000052</v>
+      </c>
+      <c r="AKV27" t="n">
+        <v>-0.00649999999999995</v>
+      </c>
+      <c r="AKW27" t="n">
+        <v>-0.01290000000000002</v>
+      </c>
+      <c r="AKX27" t="n">
+        <v>-0.006500000000000061</v>
+      </c>
+      <c r="AKY27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AKZ27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ALA27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ALB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ALC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ALD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ALE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="ALF27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ALG27" t="n">
+        <v>-0.006400000000000072</v>
+      </c>
+      <c r="ALH27" t="n">
+        <v>-0.008600000000000052</v>
+      </c>
+      <c r="ALI27" t="n">
+        <v>-0.006500000000000061</v>
+      </c>
+      <c r="ALJ27" t="n">
+        <v>-0.008600000000000052</v>
+      </c>
+      <c r="ALK27" t="n">
+        <v>-0.008599999999999941</v>
+      </c>
+      <c r="ALL27" t="n">
+        <v>-0.008599999999999941</v>
+      </c>
+      <c r="ALM27" t="n">
+        <v>-0.006400000000000072</v>
+      </c>
+      <c r="ALN27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="ALO27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="ALP27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ALQ27" t="n">
+        <v>-0.002099999999999991</v>
+      </c>
+      <c r="ALR27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="ALS27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="ALT27" t="n">
+        <v>-0.002200000000000035</v>
+      </c>
+      <c r="ALU27" t="n">
+        <v>-0.004300000000000026</v>
+      </c>
+      <c r="ALV27" t="n">
+        <v>-0.002200000000000035</v>
+      </c>
+      <c r="ALW27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="ALX27" t="n">
+        <v>-0.008599999999999941</v>
+      </c>
+      <c r="ALY27" t="n">
+        <v>-0.004300000000000082</v>
+      </c>
+      <c r="ALZ27" t="n">
+        <v>-0.004299999999999971</v>
+      </c>
+      <c r="AMA27" t="n">
+        <v>-0.01069999999999993</v>
+      </c>
+      <c r="AMB27" t="n">
+        <v>-0.008600000000000052</v>
+      </c>
+      <c r="AMC27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="AMD27" t="n">
+        <v>-0.01069999999999993</v>
+      </c>
+      <c r="AME27" t="n">
+        <v>-0.008599999999999941</v>
+      </c>
+      <c r="AMF27" t="n">
+        <v>-0.01080000000000003</v>
+      </c>
+      <c r="AMG27" t="n">
+        <v>-0.006500000000000061</v>
+      </c>
+      <c r="AMH27" t="n">
+        <v>-0.006399999999999961</v>
+      </c>
+      <c r="AMI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -82436,7 +85510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82659,13 +85733,21 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
       <c r="B26" t="n">
         <v>0.02305266863859674</v>
       </c>
-      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
         <v>0.0886397558726377</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>0.04927230749843126</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0.02000678764341074</v>
       </c>
     </row>
   </sheetData>
